--- a/data/case1/11/details_14.xlsx
+++ b/data/case1/11/details_14.xlsx
@@ -59,13 +59,13 @@
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
-    <col min="10" max="10" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="5.7109375" customWidth="true"/>
+    <col min="10" max="10" width="5.7109375" customWidth="true"/>
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
@@ -77,34 +77,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1" s="0">
+        <v>11</v>
+      </c>
+      <c r="H1" s="0">
         <v>21</v>
       </c>
-      <c r="F1" s="0">
-        <v>16</v>
-      </c>
-      <c r="G1" s="0">
-        <v>5</v>
-      </c>
-      <c r="H1" s="0">
-        <v>24</v>
-      </c>
       <c r="I1" s="0">
-        <v>16</v>
+        <v>0.076999999999999999</v>
       </c>
       <c r="J1" s="0">
-        <v>11</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="K1" s="0">
-        <v>0.063</v>
+        <v>0.068999999999999992</v>
       </c>
       <c r="L1" s="0">
         <v>0.076999999999999999</v>
